--- a/bin/Debug/Archivos/Trabajadores_.xlsx
+++ b/bin/Debug/Archivos/Trabajadores_.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Documents\LICSU\SGSST - TAREAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20922483-4345-4121-8306-B3BD336029FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148CCB04-BAC5-4BE2-92E3-5356B141C538}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AEC2CE36-B28A-449B-A4F8-CFC0393FC9D2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <author>Sebastian</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{446006AA-E315-4F2B-9CB8-ED05E289D39E}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{582A5712-FC6A-43B8-84D4-E3628CF118F1}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3586B0BC-5BF0-462D-AC52-D7270528CC7C}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{7F79A3E0-CC92-4F99-85C5-1EF5A4BE56AD}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{DB536F29-E5C5-4392-8EB9-A282ACAE6F4D}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{F1C62B6E-A7F0-41F5-A9FF-C7A18046D3D2}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3A4D5E2B-E988-450F-B8BC-32CE0FED3BDC}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{168D525D-F201-40EA-8511-9D9653536974}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -233,56 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{4AB8A9D6-958B-481A-8BAD-EB07870F227A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sebastian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Opciones
-Si o No</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{5E9499A4-D4EF-4A30-BAF8-CA80BF101ED8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sebastian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso de ser Si en la columna anterior, llenar este campo.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{BCEDEBAE-11F2-4072-AE4D-7B97850E4689}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -306,36 +257,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{3D09FB42-45EB-4EA9-8E9B-F1A80087C76F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Sebastian:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Debe ser un estatus valido, para ello consultar los listados en el sistema.</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
   <si>
     <t>Cedula</t>
   </si>
@@ -373,91 +300,268 @@
     <t>CCF</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
     <t>Municipio</t>
   </si>
   <si>
     <t>Puesto de Trabajo</t>
   </si>
   <si>
-    <t>Es Discapacitado(Si/No)</t>
-  </si>
-  <si>
-    <t>Descripcion de Discapacidad</t>
-  </si>
-  <si>
     <t>Horario</t>
   </si>
   <si>
-    <t>Estatus Actual</t>
-  </si>
-  <si>
-    <t>YODSAN</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ALARCON</t>
+    <t>SSS COMFENALCO VALLE</t>
+  </si>
+  <si>
+    <t>Soltero(a)</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JONATHAN </t>
+  </si>
+  <si>
+    <t>JAVIER A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOYA </t>
   </si>
   <si>
     <t>hy@op.com</t>
   </si>
   <si>
-    <t>RUIZ PINEDA, CARICUAO</t>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>SAUL E.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MALABET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUÑOZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NARKYS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KENJI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANOTAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUÑEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAIZA </t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARKSMAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLMOS </t>
+  </si>
+  <si>
+    <t>JUNIERLEINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YENDERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORTIZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIENGNECXEMARK </t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARQUINA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YORMAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARTINEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVIEDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYRENE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAVIELY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAYLIND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEÑA </t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>DANIELS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOGOLLON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERALTA </t>
+  </si>
+  <si>
+    <t>MAIKOL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NELSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORENO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEREZ </t>
+  </si>
+  <si>
+    <t>IAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEHT </t>
+  </si>
+  <si>
+    <t>EDUARDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIELA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAMIREZ </t>
+  </si>
+  <si>
+    <t>HUMBERTO</t>
+  </si>
+  <si>
+    <t>MIRLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIEGO </t>
+  </si>
+  <si>
+    <t>CARLOS A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOSA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RANGEL </t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICARDO </t>
+  </si>
+  <si>
+    <t>KEINER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAOMI </t>
+  </si>
+  <si>
+    <t>RIVERO</t>
+  </si>
+  <si>
+    <t>SANTIAGO E.</t>
+  </si>
+  <si>
+    <t>HEIKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODRIGUEZ </t>
+  </si>
+  <si>
+    <t>ANTONY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARBARA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEDRO </t>
+  </si>
+  <si>
+    <t>Femenino</t>
   </si>
   <si>
     <t>MEDELLIN</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RAFAEL</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>ALVARADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MARIA</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>BARRETO</t>
-  </si>
-  <si>
-    <t>SSS COMFENALCO VALLE</t>
-  </si>
-  <si>
-    <t>Analista Contable</t>
-  </si>
-  <si>
-    <t>Supervisor de Seguridad y Salud en el Trabajo</t>
-  </si>
-  <si>
-    <t>Mezclado de miel</t>
-  </si>
-  <si>
-    <t>Horario Default CaninoMix</t>
-  </si>
-  <si>
-    <t>Soltero(a)</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
+    <t>Analista de nomina</t>
+  </si>
+  <si>
+    <t>Oficial de seguridad</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Secretario Privado</t>
+  </si>
+  <si>
+    <t>Secretaria de Tesoreria</t>
+  </si>
+  <si>
+    <t>Secretario deServicios Publicos</t>
+  </si>
+  <si>
+    <t>Secretaria de Salud</t>
+  </si>
+  <si>
+    <t>Directora de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Coordinador de Servicios Generales</t>
+  </si>
+  <si>
+    <t>Electricista</t>
+  </si>
+  <si>
+    <t>Aseadora</t>
+  </si>
+  <si>
+    <t>Aseador</t>
+  </si>
+  <si>
+    <t>Jardinero</t>
+  </si>
+  <si>
+    <t>Abogado</t>
+  </si>
+  <si>
+    <t>Horario Alcaldia</t>
   </si>
 </sst>
 </file>
@@ -501,7 +605,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,6 +615,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,31 +653,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -883,265 +998,1021 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9C1438-49B5-4B83-BFD9-D2B49C7272F8}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
     <col min="12" max="12" width="26.28515625" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="17" width="25.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.28515625" customWidth="1"/>
-    <col min="19" max="19" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>26396613</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7">
+        <v>36089</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="M2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>19254705</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7">
+        <v>33128</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="J3" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K3" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>27344442</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="7">
+        <v>36575</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K4" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>26435340</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7">
+        <v>36147</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K5" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>27031394</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7">
+        <v>36565</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K6" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>27598489</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7">
+        <v>36406</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>24749775</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7">
+        <v>34987</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>26194678</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7">
+        <v>35909</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>26454268</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7">
+        <v>36174</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K10" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>22030166</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="7">
+        <v>34450</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>27333661</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7">
+        <v>36671</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K12" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>26824233</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7">
+        <v>36007</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K13" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>30098258</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7">
+        <v>36970</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K14" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>27713296</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="7">
+        <v>36409</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K15" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
+        <v>92</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>27279007</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>27006419</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="6">
-        <v>36381</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G16" s="7">
+        <v>36423</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K16" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>26131627</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="E17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7">
+        <v>35675</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="8">
         <v>2123149119</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K17" s="8">
         <v>4123279822</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>26</v>
+      <c r="L17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>27467659</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>26271227</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6">
-        <v>36758</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="G18" s="7">
+        <v>35900</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="8">
         <v>2123149119</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K18" s="8">
         <v>4123279822</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
+      <c r="L18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>27223655</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="5" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>23689393</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6">
-        <v>36670</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="G19" s="7">
+        <v>35143</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8">
         <v>2123149119</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K19" s="8">
         <v>4123279822</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>26</v>
+      <c r="L19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N19" t="s">
+        <v>96</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>26343128</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7">
+        <v>35958</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K20" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>27448512</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7">
+        <v>36602</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="8">
+        <v>2123149119</v>
+      </c>
+      <c r="K21" s="8">
+        <v>4123279822</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>